--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Rps19-C5ar1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Rps19-C5ar1.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>111.8292005</v>
+        <v>116.7941435</v>
       </c>
       <c r="H2">
-        <v>223.658401</v>
+        <v>233.588287</v>
       </c>
       <c r="I2">
-        <v>0.1303143245561539</v>
+        <v>0.1458089884519265</v>
       </c>
       <c r="J2">
-        <v>0.09797997212756956</v>
+        <v>0.1093526207809631</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -567,22 +567,22 @@
         <v>1.250532</v>
       </c>
       <c r="O2">
-        <v>0.003092870113296748</v>
+        <v>0.0009823802342921145</v>
       </c>
       <c r="P2">
-        <v>0.003093860544621653</v>
+        <v>0.0009829274909926432</v>
       </c>
       <c r="Q2">
-        <v>46.615331253222</v>
+        <v>48.684937953114</v>
       </c>
       <c r="R2">
-        <v>279.691987519332</v>
+        <v>292.109627718684</v>
       </c>
       <c r="S2">
-        <v>0.0004030452797541809</v>
+        <v>0.0001432398682372997</v>
       </c>
       <c r="T2">
-        <v>0.0003031363699286167</v>
+        <v>0.000107485697177702</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>111.8292005</v>
+        <v>116.7941435</v>
       </c>
       <c r="H3">
-        <v>223.658401</v>
+        <v>233.588287</v>
       </c>
       <c r="I3">
-        <v>0.1303143245561539</v>
+        <v>0.1458089884519265</v>
       </c>
       <c r="J3">
-        <v>0.09797997212756956</v>
+        <v>0.1093526207809631</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,28 +623,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>98.29520433333334</v>
+        <v>110.2131423333333</v>
       </c>
       <c r="N3">
-        <v>294.885613</v>
+        <v>330.639427</v>
       </c>
       <c r="O3">
-        <v>0.7293239191711137</v>
+        <v>0.2597403647107555</v>
       </c>
       <c r="P3">
-        <v>0.7295574709301882</v>
+        <v>0.2598850588424408</v>
       </c>
       <c r="Q3">
-        <v>10992.2741135808</v>
+        <v>12872.24956126526</v>
       </c>
       <c r="R3">
-        <v>65953.64468148482</v>
+        <v>77233.49736759154</v>
       </c>
       <c r="S3">
-        <v>0.09504135390943065</v>
+        <v>0.03787247983860972</v>
       </c>
       <c r="T3">
-        <v>0.07148202066719998</v>
+        <v>0.0284191122862357</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,46 +667,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>111.8292005</v>
+        <v>116.7941435</v>
       </c>
       <c r="H4">
-        <v>223.658401</v>
+        <v>233.588287</v>
       </c>
       <c r="I4">
-        <v>0.1303143245561539</v>
+        <v>0.1458089884519265</v>
       </c>
       <c r="J4">
-        <v>0.09797997212756956</v>
+        <v>0.1093526207809631</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.1294365</v>
+        <v>0.7087365000000001</v>
       </c>
       <c r="N4">
-        <v>0.258873</v>
+        <v>1.417473</v>
       </c>
       <c r="O4">
-        <v>0.0009603839384031787</v>
+        <v>0.001670286075657496</v>
       </c>
       <c r="P4">
-        <v>0.0006404609884176025</v>
+        <v>0.001114144363710657</v>
       </c>
       <c r="Q4">
-        <v>14.47478031051825</v>
+        <v>82.77627248468777</v>
       </c>
       <c r="R4">
-        <v>57.899121242073</v>
+        <v>331.1050899387511</v>
       </c>
       <c r="S4">
-        <v>0.0001251517842475891</v>
+        <v>0.0002435427231169575</v>
       </c>
       <c r="T4">
-        <v>6.275234979395235E-05</v>
+        <v>0.0001218346061000989</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,46 +729,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>111.8292005</v>
+        <v>116.7941435</v>
       </c>
       <c r="H5">
-        <v>223.658401</v>
+        <v>233.588287</v>
       </c>
       <c r="I5">
-        <v>0.1303143245561539</v>
+        <v>0.1458089884519265</v>
       </c>
       <c r="J5">
-        <v>0.09797997212756956</v>
+        <v>0.1093526207809631</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.07405033333333334</v>
+        <v>229.3671723333333</v>
       </c>
       <c r="N5">
-        <v>0.222151</v>
+        <v>688.1015170000001</v>
       </c>
       <c r="O5">
-        <v>0.0005494335119285121</v>
+        <v>0.5405518047416775</v>
       </c>
       <c r="P5">
-        <v>0.0005496094572935718</v>
+        <v>0.5408529311149508</v>
       </c>
       <c r="Q5">
-        <v>8.280989573425167</v>
+        <v>26788.74243968857</v>
       </c>
       <c r="R5">
-        <v>49.685937440551</v>
+        <v>160732.4546381314</v>
       </c>
       <c r="S5">
-        <v>7.159905699547956E-05</v>
+        <v>0.07881731185524726</v>
       </c>
       <c r="T5">
-        <v>5.38507193066728E-05</v>
+        <v>0.05914368547448556</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>111.8292005</v>
+        <v>116.7941435</v>
       </c>
       <c r="H6">
-        <v>223.658401</v>
+        <v>233.588287</v>
       </c>
       <c r="I6">
-        <v>0.1303143245561539</v>
+        <v>0.1458089884519265</v>
       </c>
       <c r="J6">
-        <v>0.09797997212756956</v>
+        <v>0.1093526207809631</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>35.86025066666667</v>
+        <v>83.61453133333333</v>
       </c>
       <c r="N6">
-        <v>107.580752</v>
+        <v>250.843594</v>
       </c>
       <c r="O6">
-        <v>0.2660733932652578</v>
+        <v>0.1970551642376173</v>
       </c>
       <c r="P6">
-        <v>0.2661585980794789</v>
+        <v>0.197164938187905</v>
       </c>
       <c r="Q6">
-        <v>4010.223161782925</v>
+        <v>9765.687571230579</v>
       </c>
       <c r="R6">
-        <v>24061.33897069755</v>
+        <v>58594.12542738348</v>
       </c>
       <c r="S6">
-        <v>0.03467317452572598</v>
+        <v>0.02873241416671522</v>
       </c>
       <c r="T6">
-        <v>0.02607821202134034</v>
+        <v>0.021560502716964</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -859,10 +859,10 @@
         <v>553.37249</v>
       </c>
       <c r="I7">
-        <v>0.2149479203996962</v>
+        <v>0.2302817606718548</v>
       </c>
       <c r="J7">
-        <v>0.2424206777118279</v>
+        <v>0.2590572191215533</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -877,10 +877,10 @@
         <v>1.250532</v>
       </c>
       <c r="O7">
-        <v>0.003092870113296748</v>
+        <v>0.0009823802342921145</v>
       </c>
       <c r="P7">
-        <v>0.003093860544621653</v>
+        <v>0.0009829274909926432</v>
       </c>
       <c r="Q7">
         <v>76.89000074051999</v>
@@ -889,10 +889,10 @@
         <v>692.01000666468</v>
       </c>
       <c r="S7">
-        <v>0.0006648059989195089</v>
+        <v>0.0002262242500020173</v>
       </c>
       <c r="T7">
-        <v>0.000750015769973066</v>
+        <v>0.0002546344624146797</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>553.37249</v>
       </c>
       <c r="I8">
-        <v>0.2149479203996962</v>
+        <v>0.2302817606718548</v>
       </c>
       <c r="J8">
-        <v>0.2424206777118279</v>
+        <v>0.2590572191215533</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>98.29520433333334</v>
+        <v>110.2131423333333</v>
       </c>
       <c r="N8">
-        <v>294.885613</v>
+        <v>330.639427</v>
       </c>
       <c r="O8">
-        <v>0.7293239191711137</v>
+        <v>0.2597403647107555</v>
       </c>
       <c r="P8">
-        <v>0.7295574709301882</v>
+        <v>0.2598850588424408</v>
       </c>
       <c r="Q8">
-        <v>18131.28732566515</v>
+        <v>20329.64033457369</v>
       </c>
       <c r="R8">
-        <v>163181.5859309864</v>
+        <v>182966.7630111632</v>
       </c>
       <c r="S8">
-        <v>0.1567666597235871</v>
+        <v>0.05981346850314247</v>
       </c>
       <c r="T8">
-        <v>0.1768598165326234</v>
+        <v>0.06732510063496396</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,40 +983,40 @@
         <v>553.37249</v>
       </c>
       <c r="I9">
-        <v>0.2149479203996962</v>
+        <v>0.2302817606718548</v>
       </c>
       <c r="J9">
-        <v>0.2424206777118279</v>
+        <v>0.2590572191215533</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.1294365</v>
+        <v>0.7087365000000001</v>
       </c>
       <c r="N9">
-        <v>0.258873</v>
+        <v>1.417473</v>
       </c>
       <c r="O9">
-        <v>0.0009603839384031787</v>
+        <v>0.001670286075657496</v>
       </c>
       <c r="P9">
-        <v>0.0006404609884176025</v>
+        <v>0.001114144363710657</v>
       </c>
       <c r="Q9">
-        <v>23.875532767295</v>
+        <v>130.731760586295</v>
       </c>
       <c r="R9">
-        <v>143.25319660377</v>
+        <v>784.39056351777</v>
       </c>
       <c r="S9">
-        <v>0.0002064325303450332</v>
+        <v>0.0003846364183280911</v>
       </c>
       <c r="T9">
-        <v>0.0001552609868601824</v>
+        <v>0.0002886271405628352</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,40 +1045,40 @@
         <v>553.37249</v>
       </c>
       <c r="I10">
-        <v>0.2149479203996962</v>
+        <v>0.2302817606718548</v>
       </c>
       <c r="J10">
-        <v>0.2424206777118279</v>
+        <v>0.2590572191215533</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.07405033333333334</v>
+        <v>229.3671723333333</v>
       </c>
       <c r="N10">
-        <v>0.222151</v>
+        <v>688.1015170000001</v>
       </c>
       <c r="O10">
-        <v>0.0005494335119285121</v>
+        <v>0.5405518047416775</v>
       </c>
       <c r="P10">
-        <v>0.0005496094572935718</v>
+        <v>0.5408529311149508</v>
       </c>
       <c r="Q10">
-        <v>13.65913911399889</v>
+        <v>42308.49442611859</v>
       </c>
       <c r="R10">
-        <v>122.93225202599</v>
+        <v>380776.4498350673</v>
       </c>
       <c r="S10">
-        <v>0.0001180995907869354</v>
+        <v>0.1244792213302622</v>
       </c>
       <c r="T10">
-        <v>0.0001332366971139376</v>
+        <v>0.1401118562883802</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>553.37249</v>
       </c>
       <c r="I11">
-        <v>0.2149479203996962</v>
+        <v>0.2302817606718548</v>
       </c>
       <c r="J11">
-        <v>0.2424206777118279</v>
+        <v>0.2590572191215533</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>35.86025066666667</v>
+        <v>83.61453133333333</v>
       </c>
       <c r="N11">
-        <v>107.580752</v>
+        <v>250.843594</v>
       </c>
       <c r="O11">
-        <v>0.2660733932652578</v>
+        <v>0.1970551642376173</v>
       </c>
       <c r="P11">
-        <v>0.2661585980794789</v>
+        <v>0.197164938187905</v>
       </c>
       <c r="Q11">
-        <v>6614.692067812497</v>
+        <v>15423.32713470323</v>
       </c>
       <c r="R11">
-        <v>59532.22861031248</v>
+        <v>138809.9442123291</v>
       </c>
       <c r="S11">
-        <v>0.05719192255605771</v>
+        <v>0.04537821017012002</v>
       </c>
       <c r="T11">
-        <v>0.06452234772525731</v>
+        <v>0.05107700059523162</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1163,16 +1163,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>137.966339</v>
+        <v>147.4108376666667</v>
       </c>
       <c r="H12">
-        <v>413.899017</v>
+        <v>442.232513</v>
       </c>
       <c r="I12">
-        <v>0.160771875305237</v>
+        <v>0.1840317029854139</v>
       </c>
       <c r="J12">
-        <v>0.1813203258539278</v>
+        <v>0.2070278647623342</v>
       </c>
       <c r="K12">
         <v>2</v>
@@ -1187,22 +1187,22 @@
         <v>1.250532</v>
       </c>
       <c r="O12">
-        <v>0.003092870113296748</v>
+        <v>0.0009823802342921145</v>
       </c>
       <c r="P12">
-        <v>0.003093860544621653</v>
+        <v>0.0009829274909926432</v>
       </c>
       <c r="Q12">
-        <v>57.510440614116</v>
+        <v>61.44732321632399</v>
       </c>
       <c r="R12">
-        <v>517.593965527044</v>
+        <v>553.0259089469159</v>
       </c>
       <c r="S12">
-        <v>0.0004972465281902392</v>
+        <v>0.0001807891074959877</v>
       </c>
       <c r="T12">
-        <v>0.0005609798020974085</v>
+        <v>0.0002034933796764054</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1225,16 +1225,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>137.966339</v>
+        <v>147.4108376666667</v>
       </c>
       <c r="H13">
-        <v>413.899017</v>
+        <v>442.232513</v>
       </c>
       <c r="I13">
-        <v>0.160771875305237</v>
+        <v>0.1840317029854139</v>
       </c>
       <c r="J13">
-        <v>0.1813203258539278</v>
+        <v>0.2070278647623342</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>98.29520433333334</v>
+        <v>110.2131423333333</v>
       </c>
       <c r="N13">
-        <v>294.885613</v>
+        <v>330.639427</v>
       </c>
       <c r="O13">
-        <v>0.7293239191711137</v>
+        <v>0.2597403647107555</v>
       </c>
       <c r="P13">
-        <v>0.7295574709301882</v>
+        <v>0.2598850588424408</v>
       </c>
       <c r="Q13">
-        <v>13561.42948312694</v>
+        <v>16246.61163323223</v>
       </c>
       <c r="R13">
-        <v>122052.8653481424</v>
+        <v>146219.50469909</v>
       </c>
       <c r="S13">
-        <v>0.1172547741901051</v>
+        <v>0.04780046165177283</v>
       </c>
       <c r="T13">
-        <v>0.1322835983582291</v>
+        <v>0.0538034488157841</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,46 +1287,46 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>137.966339</v>
+        <v>147.4108376666667</v>
       </c>
       <c r="H14">
-        <v>413.899017</v>
+        <v>442.232513</v>
       </c>
       <c r="I14">
-        <v>0.160771875305237</v>
+        <v>0.1840317029854139</v>
       </c>
       <c r="J14">
-        <v>0.1813203258539278</v>
+        <v>0.2070278647623342</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M14">
-        <v>0.1294365</v>
+        <v>0.7087365000000001</v>
       </c>
       <c r="N14">
-        <v>0.258873</v>
+        <v>1.417473</v>
       </c>
       <c r="O14">
-        <v>0.0009603839384031787</v>
+        <v>0.001670286075657496</v>
       </c>
       <c r="P14">
-        <v>0.0006404609884176025</v>
+        <v>0.001114144363710657</v>
       </c>
       <c r="Q14">
-        <v>17.8578800379735</v>
+        <v>104.4754411499415</v>
       </c>
       <c r="R14">
-        <v>107.147280227841</v>
+        <v>626.852646899649</v>
       </c>
       <c r="S14">
-        <v>0.0001544027267901083</v>
+        <v>0.0003073855909760728</v>
       </c>
       <c r="T14">
-        <v>0.0001161285951166083</v>
+        <v>0.0002306589286560068</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,46 +1349,46 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>137.966339</v>
+        <v>147.4108376666667</v>
       </c>
       <c r="H15">
-        <v>413.899017</v>
+        <v>442.232513</v>
       </c>
       <c r="I15">
-        <v>0.160771875305237</v>
+        <v>0.1840317029854139</v>
       </c>
       <c r="J15">
-        <v>0.1813203258539278</v>
+        <v>0.2070278647623342</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M15">
-        <v>0.07405033333333334</v>
+        <v>229.3671723333333</v>
       </c>
       <c r="N15">
-        <v>0.222151</v>
+        <v>688.1015170000001</v>
       </c>
       <c r="O15">
-        <v>0.0005494335119285121</v>
+        <v>0.5405518047416775</v>
       </c>
       <c r="P15">
-        <v>0.0005496094572935718</v>
+        <v>0.5408529311149508</v>
       </c>
       <c r="Q15">
-        <v>10.21645339172967</v>
+        <v>33811.20700689135</v>
       </c>
       <c r="R15">
-        <v>91.94808052556701</v>
+        <v>304300.8630620223</v>
       </c>
       <c r="S15">
-        <v>8.833345606828921E-05</v>
+        <v>0.09947866917844982</v>
       </c>
       <c r="T15">
-        <v>9.965536588887083E-05</v>
+        <v>0.1119716274791781</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>137.966339</v>
+        <v>147.4108376666667</v>
       </c>
       <c r="H16">
-        <v>413.899017</v>
+        <v>442.232513</v>
       </c>
       <c r="I16">
-        <v>0.160771875305237</v>
+        <v>0.1840317029854139</v>
       </c>
       <c r="J16">
-        <v>0.1813203258539278</v>
+        <v>0.2070278647623342</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>35.86025066666667</v>
+        <v>83.61453133333333</v>
       </c>
       <c r="N16">
-        <v>107.580752</v>
+        <v>250.843594</v>
       </c>
       <c r="O16">
-        <v>0.2660733932652578</v>
+        <v>0.1970551642376173</v>
       </c>
       <c r="P16">
-        <v>0.2661585980794789</v>
+        <v>0.197164938187905</v>
       </c>
       <c r="Q16">
-        <v>4947.50750010231</v>
+        <v>12325.68810495241</v>
       </c>
       <c r="R16">
-        <v>44527.56750092078</v>
+        <v>110931.1929445717</v>
       </c>
       <c r="S16">
-        <v>0.04277711840408333</v>
+        <v>0.03626439745671914</v>
       </c>
       <c r="T16">
-        <v>0.04825996373259572</v>
+        <v>0.04081863615903959</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>179.924858</v>
+        <v>150.127983</v>
       </c>
       <c r="H17">
-        <v>359.849716</v>
+        <v>300.2559659999999</v>
       </c>
       <c r="I17">
-        <v>0.209666046402003</v>
+        <v>0.1874238611935025</v>
       </c>
       <c r="J17">
-        <v>0.1576424806139691</v>
+        <v>0.1405625993019921</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1497,22 +1497,22 @@
         <v>1.250532</v>
       </c>
       <c r="O17">
-        <v>0.003092870113296748</v>
+        <v>0.0009823802342921145</v>
       </c>
       <c r="P17">
-        <v>0.003093860544621653</v>
+        <v>0.0009829274909926432</v>
       </c>
       <c r="Q17">
-        <v>75.000597508152</v>
+        <v>62.57994894565199</v>
       </c>
       <c r="R17">
-        <v>450.003585048912</v>
+        <v>375.4796936739119</v>
       </c>
       <c r="S17">
-        <v>0.0006484698486898444</v>
+        <v>0.0001841214966712057</v>
       </c>
       <c r="T17">
-        <v>0.0004877238509278428</v>
+        <v>0.0001381628430593114</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>179.924858</v>
+        <v>150.127983</v>
       </c>
       <c r="H18">
-        <v>359.849716</v>
+        <v>300.2559659999999</v>
       </c>
       <c r="I18">
-        <v>0.209666046402003</v>
+        <v>0.1874238611935025</v>
       </c>
       <c r="J18">
-        <v>0.1576424806139691</v>
+        <v>0.1405625993019921</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>98.29520433333334</v>
+        <v>110.2131423333333</v>
       </c>
       <c r="N18">
-        <v>294.885613</v>
+        <v>330.639427</v>
       </c>
       <c r="O18">
-        <v>0.7293239191711137</v>
+        <v>0.2597403647107555</v>
       </c>
       <c r="P18">
-        <v>0.7295574709301882</v>
+        <v>0.2598850588424408</v>
       </c>
       <c r="Q18">
-        <v>17685.75068175599</v>
+        <v>16546.07675859524</v>
       </c>
       <c r="R18">
-        <v>106114.5040905359</v>
+        <v>99276.46055157145</v>
       </c>
       <c r="S18">
-        <v>0.1529144626790214</v>
+        <v>0.04868154206189835</v>
       </c>
       <c r="T18">
-        <v>0.1150092494678885</v>
+        <v>0.03653011939064465</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,46 +1597,46 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>179.924858</v>
+        <v>150.127983</v>
       </c>
       <c r="H19">
-        <v>359.849716</v>
+        <v>300.2559659999999</v>
       </c>
       <c r="I19">
-        <v>0.209666046402003</v>
+        <v>0.1874238611935025</v>
       </c>
       <c r="J19">
-        <v>0.1576424806139691</v>
+        <v>0.1405625993019921</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M19">
-        <v>0.1294365</v>
+        <v>0.7087365000000001</v>
       </c>
       <c r="N19">
-        <v>0.258873</v>
+        <v>1.417473</v>
       </c>
       <c r="O19">
-        <v>0.0009603839384031787</v>
+        <v>0.001670286075657496</v>
       </c>
       <c r="P19">
-        <v>0.0006404609884176025</v>
+        <v>0.001114144363710657</v>
       </c>
       <c r="Q19">
-        <v>23.288843882517</v>
+        <v>106.4011812234795</v>
       </c>
       <c r="R19">
-        <v>93.15537553006801</v>
+        <v>425.604724893918</v>
       </c>
       <c r="S19">
-        <v>0.0002013599033929793</v>
+        <v>0.0003130514655974705</v>
       </c>
       <c r="T19">
-        <v>0.0001009638589506254</v>
+        <v>0.000156607027760834</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,46 +1659,46 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>179.924858</v>
+        <v>150.127983</v>
       </c>
       <c r="H20">
-        <v>359.849716</v>
+        <v>300.2559659999999</v>
       </c>
       <c r="I20">
-        <v>0.209666046402003</v>
+        <v>0.1874238611935025</v>
       </c>
       <c r="J20">
-        <v>0.1576424806139691</v>
+        <v>0.1405625993019921</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M20">
-        <v>0.07405033333333334</v>
+        <v>229.3671723333333</v>
       </c>
       <c r="N20">
-        <v>0.222151</v>
+        <v>688.1015170000001</v>
       </c>
       <c r="O20">
-        <v>0.0005494335119285121</v>
+        <v>0.5405518047416775</v>
       </c>
       <c r="P20">
-        <v>0.0005496094572935718</v>
+        <v>0.5408529311149508</v>
       </c>
       <c r="Q20">
-        <v>13.32349570985267</v>
+        <v>34434.43094881673</v>
       </c>
       <c r="R20">
-        <v>79.940974259116</v>
+        <v>206606.5856929004</v>
       </c>
       <c r="S20">
-        <v>0.0001151975522068189</v>
+        <v>0.1013123064198014</v>
       </c>
       <c r="T20">
-        <v>8.664179821665597E-05</v>
+        <v>0.07602369383761877</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>179.924858</v>
+        <v>150.127983</v>
       </c>
       <c r="H21">
-        <v>359.849716</v>
+        <v>300.2559659999999</v>
       </c>
       <c r="I21">
-        <v>0.209666046402003</v>
+        <v>0.1874238611935025</v>
       </c>
       <c r="J21">
-        <v>0.1576424806139691</v>
+        <v>0.1405625993019921</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1739,28 +1739,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>35.86025066666667</v>
+        <v>83.61453133333333</v>
       </c>
       <c r="N21">
-        <v>107.580752</v>
+        <v>250.843594</v>
       </c>
       <c r="O21">
-        <v>0.2660733932652578</v>
+        <v>0.1970551642376173</v>
       </c>
       <c r="P21">
-        <v>0.2661585980794789</v>
+        <v>0.197164938187905</v>
       </c>
       <c r="Q21">
-        <v>6452.150509044405</v>
+        <v>12552.88093856363</v>
       </c>
       <c r="R21">
-        <v>38712.90305426643</v>
+        <v>75317.28563138179</v>
       </c>
       <c r="S21">
-        <v>0.05578655641869194</v>
+        <v>0.03693283974953402</v>
       </c>
       <c r="T21">
-        <v>0.04195790163798545</v>
+        <v>0.02771401620290854</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>80.412525</v>
+        <v>78.99020266666666</v>
       </c>
       <c r="H22">
-        <v>241.237575</v>
+        <v>236.970608</v>
       </c>
       <c r="I22">
-        <v>0.09370454080309586</v>
+        <v>0.09861351950784528</v>
       </c>
       <c r="J22">
-        <v>0.1056810330796493</v>
+        <v>0.1109360292233242</v>
       </c>
       <c r="K22">
         <v>2</v>
@@ -1807,22 +1807,22 @@
         <v>1.250532</v>
       </c>
       <c r="O22">
-        <v>0.003092870113296748</v>
+        <v>0.0009823802342921145</v>
       </c>
       <c r="P22">
-        <v>0.003093860544621653</v>
+        <v>0.0009829274909926432</v>
       </c>
       <c r="Q22">
-        <v>33.5194785711</v>
+        <v>32.92659204038399</v>
       </c>
       <c r="R22">
-        <v>301.6753071399</v>
+        <v>296.3393283634559</v>
       </c>
       <c r="S22">
-        <v>0.0002898159737300909</v>
+        <v>9.687597239848705E-05</v>
       </c>
       <c r="T22">
-        <v>0.0003269623785599828</v>
+        <v>0.0001090420728651686</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>80.412525</v>
+        <v>78.99020266666666</v>
       </c>
       <c r="H23">
-        <v>241.237575</v>
+        <v>236.970608</v>
       </c>
       <c r="I23">
-        <v>0.09370454080309586</v>
+        <v>0.09861351950784528</v>
       </c>
       <c r="J23">
-        <v>0.1056810330796493</v>
+        <v>0.1109360292233242</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>98.29520433333334</v>
+        <v>110.2131423333333</v>
       </c>
       <c r="N23">
-        <v>294.885613</v>
+        <v>330.639427</v>
       </c>
       <c r="O23">
-        <v>0.7293239191711137</v>
+        <v>0.2597403647107555</v>
       </c>
       <c r="P23">
-        <v>0.7295574709301882</v>
+        <v>0.2598850588424408</v>
       </c>
       <c r="Q23">
-        <v>7904.165575834276</v>
+        <v>8705.758449440178</v>
       </c>
       <c r="R23">
-        <v>71137.49018250848</v>
+        <v>78351.82604496159</v>
       </c>
       <c r="S23">
-        <v>0.06834096294264341</v>
+        <v>0.02561391152237893</v>
       </c>
       <c r="T23">
-        <v>0.07710038721887852</v>
+        <v>0.02883061648245035</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,46 +1907,46 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>80.412525</v>
+        <v>78.99020266666666</v>
       </c>
       <c r="H24">
-        <v>241.237575</v>
+        <v>236.970608</v>
       </c>
       <c r="I24">
-        <v>0.09370454080309586</v>
+        <v>0.09861351950784528</v>
       </c>
       <c r="J24">
-        <v>0.1056810330796493</v>
+        <v>0.1109360292233242</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L24">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M24">
-        <v>0.1294365</v>
+        <v>0.7087365000000001</v>
       </c>
       <c r="N24">
-        <v>0.258873</v>
+        <v>1.417473</v>
       </c>
       <c r="O24">
-        <v>0.0009603839384031787</v>
+        <v>0.001670286075657496</v>
       </c>
       <c r="P24">
-        <v>0.0006404609884176025</v>
+        <v>0.001114144363710657</v>
       </c>
       <c r="Q24">
-        <v>10.4083157921625</v>
+        <v>55.98323977226401</v>
       </c>
       <c r="R24">
-        <v>62.44989475297501</v>
+        <v>335.899438633584</v>
       </c>
       <c r="S24">
-        <v>8.999233594273855E-05</v>
+        <v>0.0001647127885055329</v>
       </c>
       <c r="T24">
-        <v>6.768457890318555E-05</v>
+        <v>0.0001235987516916074</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,46 +1969,46 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>80.412525</v>
+        <v>78.99020266666666</v>
       </c>
       <c r="H25">
-        <v>241.237575</v>
+        <v>236.970608</v>
       </c>
       <c r="I25">
-        <v>0.09370454080309586</v>
+        <v>0.09861351950784528</v>
       </c>
       <c r="J25">
-        <v>0.1056810330796493</v>
+        <v>0.1109360292233242</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M25">
-        <v>0.07405033333333334</v>
+        <v>229.3671723333333</v>
       </c>
       <c r="N25">
-        <v>0.222151</v>
+        <v>688.1015170000001</v>
       </c>
       <c r="O25">
-        <v>0.0005494335119285121</v>
+        <v>0.5405518047416775</v>
       </c>
       <c r="P25">
-        <v>0.0005496094572935718</v>
+        <v>0.5408529311149508</v>
       </c>
       <c r="Q25">
-        <v>5.954574280425001</v>
+        <v>18117.75942769026</v>
       </c>
       <c r="R25">
-        <v>53.591168523825</v>
+        <v>163059.8348492123</v>
       </c>
       <c r="S25">
-        <v>5.148441493709351E-05</v>
+        <v>0.05330571594189439</v>
       </c>
       <c r="T25">
-        <v>5.808329523713007E-05</v>
+        <v>0.06000007657168875</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>80.412525</v>
+        <v>78.99020266666666</v>
       </c>
       <c r="H26">
-        <v>241.237575</v>
+        <v>236.970608</v>
       </c>
       <c r="I26">
-        <v>0.09370454080309586</v>
+        <v>0.09861351950784528</v>
       </c>
       <c r="J26">
-        <v>0.1056810330796493</v>
+        <v>0.1109360292233242</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>35.86025066666667</v>
+        <v>83.61453133333333</v>
       </c>
       <c r="N26">
-        <v>107.580752</v>
+        <v>250.843594</v>
       </c>
       <c r="O26">
-        <v>0.2660733932652578</v>
+        <v>0.1970551642376173</v>
       </c>
       <c r="P26">
-        <v>0.2661585980794789</v>
+        <v>0.197164938187905</v>
       </c>
       <c r="Q26">
-        <v>2883.6133032396</v>
+        <v>6604.728775898349</v>
       </c>
       <c r="R26">
-        <v>25952.5197291564</v>
+        <v>59442.55898308515</v>
       </c>
       <c r="S26">
-        <v>0.02493228513584252</v>
+        <v>0.01943230328266793</v>
       </c>
       <c r="T26">
-        <v>0.0281279156080705</v>
+        <v>0.02187269534462835</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>163.559296</v>
+        <v>123.2271806666667</v>
       </c>
       <c r="H27">
-        <v>490.677888</v>
+        <v>369.681542</v>
       </c>
       <c r="I27">
-        <v>0.190595292533814</v>
+        <v>0.1538401671894572</v>
       </c>
       <c r="J27">
-        <v>0.2149555106130563</v>
+        <v>0.1730636668098331</v>
       </c>
       <c r="K27">
         <v>2</v>
@@ -2117,22 +2117,22 @@
         <v>1.250532</v>
       </c>
       <c r="O27">
-        <v>0.003092870113296748</v>
+        <v>0.0009823802342921145</v>
       </c>
       <c r="P27">
-        <v>0.003093860544621653</v>
+        <v>0.0009829274909926432</v>
       </c>
       <c r="Q27">
-        <v>68.178711181824</v>
+        <v>51.36651089781599</v>
       </c>
       <c r="R27">
-        <v>613.608400636416</v>
+        <v>462.298598080344</v>
       </c>
       <c r="S27">
-        <v>0.0005894864840128842</v>
+        <v>0.000151129539487117</v>
       </c>
       <c r="T27">
-        <v>0.0006650423731347359</v>
+        <v>0.000170109035799376</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>163.559296</v>
+        <v>123.2271806666667</v>
       </c>
       <c r="H28">
-        <v>490.677888</v>
+        <v>369.681542</v>
       </c>
       <c r="I28">
-        <v>0.190595292533814</v>
+        <v>0.1538401671894572</v>
       </c>
       <c r="J28">
-        <v>0.2149555106130563</v>
+        <v>0.1730636668098331</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>98.29520433333334</v>
+        <v>110.2131423333333</v>
       </c>
       <c r="N28">
-        <v>294.885613</v>
+        <v>330.639427</v>
       </c>
       <c r="O28">
-        <v>0.7293239191711137</v>
+        <v>0.2597403647107555</v>
       </c>
       <c r="P28">
-        <v>0.7295574709301882</v>
+        <v>0.2598850588424408</v>
       </c>
       <c r="Q28">
-        <v>16077.09442093615</v>
+        <v>13581.25480215071</v>
       </c>
       <c r="R28">
-        <v>144693.8497884254</v>
+        <v>122231.2932193564</v>
       </c>
       <c r="S28">
-        <v>0.1390057057263261</v>
+        <v>0.03995850113295321</v>
       </c>
       <c r="T28">
-        <v>0.1568223986853686</v>
+        <v>0.04497666123236204</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,46 +2217,46 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>163.559296</v>
+        <v>123.2271806666667</v>
       </c>
       <c r="H29">
-        <v>490.677888</v>
+        <v>369.681542</v>
       </c>
       <c r="I29">
-        <v>0.190595292533814</v>
+        <v>0.1538401671894572</v>
       </c>
       <c r="J29">
-        <v>0.2149555106130563</v>
+        <v>0.1730636668098331</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L29">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M29">
-        <v>0.1294365</v>
+        <v>0.7087365000000001</v>
       </c>
       <c r="N29">
-        <v>0.258873</v>
+        <v>1.417473</v>
       </c>
       <c r="O29">
-        <v>0.0009603839384031787</v>
+        <v>0.001670286075657496</v>
       </c>
       <c r="P29">
-        <v>0.0006404609884176025</v>
+        <v>0.001114144363710657</v>
       </c>
       <c r="Q29">
-        <v>21.170542816704</v>
+        <v>87.335600730561</v>
       </c>
       <c r="R29">
-        <v>127.023256900224</v>
+        <v>524.0136043833661</v>
       </c>
       <c r="S29">
-        <v>0.0001830446576847302</v>
+        <v>0.0002569570891333716</v>
       </c>
       <c r="T29">
-        <v>0.0001376706187930485</v>
+        <v>0.0001928179089392746</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,46 +2279,46 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>163.559296</v>
+        <v>123.2271806666667</v>
       </c>
       <c r="H30">
-        <v>490.677888</v>
+        <v>369.681542</v>
       </c>
       <c r="I30">
-        <v>0.190595292533814</v>
+        <v>0.1538401671894572</v>
       </c>
       <c r="J30">
-        <v>0.2149555106130563</v>
+        <v>0.1730636668098331</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M30">
-        <v>0.07405033333333334</v>
+        <v>229.3671723333333</v>
       </c>
       <c r="N30">
-        <v>0.222151</v>
+        <v>688.1015170000001</v>
       </c>
       <c r="O30">
-        <v>0.0005494335119285121</v>
+        <v>0.5405518047416775</v>
       </c>
       <c r="P30">
-        <v>0.0005496094572935718</v>
+        <v>0.5408529311149508</v>
       </c>
       <c r="Q30">
-        <v>12.11162038856533</v>
+        <v>28264.26998412213</v>
       </c>
       <c r="R30">
-        <v>109.004583497088</v>
+        <v>254378.4298570992</v>
       </c>
       <c r="S30">
-        <v>0.0001047194409338955</v>
+        <v>0.08315858001602248</v>
       </c>
       <c r="T30">
-        <v>0.0001181415815303045</v>
+        <v>0.09360199146359946</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>163.559296</v>
+        <v>123.2271806666667</v>
       </c>
       <c r="H31">
-        <v>490.677888</v>
+        <v>369.681542</v>
       </c>
       <c r="I31">
-        <v>0.190595292533814</v>
+        <v>0.1538401671894572</v>
       </c>
       <c r="J31">
-        <v>0.2149555106130563</v>
+        <v>0.1730636668098331</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>35.86025066666667</v>
+        <v>83.61453133333333</v>
       </c>
       <c r="N31">
-        <v>107.580752</v>
+        <v>250.843594</v>
       </c>
       <c r="O31">
-        <v>0.2660733932652578</v>
+        <v>0.1970551642376173</v>
       </c>
       <c r="P31">
-        <v>0.2661585980794789</v>
+        <v>0.197164938187905</v>
       </c>
       <c r="Q31">
-        <v>5865.27735342353</v>
+        <v>10303.58295897133</v>
       </c>
       <c r="R31">
-        <v>52787.49618081178</v>
+        <v>92732.24663074194</v>
       </c>
       <c r="S31">
-        <v>0.05071233622485635</v>
+        <v>0.03031499941186099</v>
       </c>
       <c r="T31">
-        <v>0.05721225735422963</v>
+        <v>0.03412208716913293</v>
       </c>
     </row>
   </sheetData>
